--- a/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
+++ b/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>5,520.01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4,623.70</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5,772.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,962.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>5,446.13</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5,962.77</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5,772.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4,623.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5,520.01</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5962.77</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>4623.7</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>5465.084000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>137.16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>115.64</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>117.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>101.70</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>117.15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>108.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>115.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>137.16</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>137.16</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>116.016</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5,657.17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4,739.34</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5,881.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6,079.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>5,547.83</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6,079.92</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5,881.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4,739.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5,657.17</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>6079.92</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>4739.34</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>5581.1</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,537.24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3,014.54</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,404.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3,758.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3,383.43</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3,758.40</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,404.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3,014.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3,537.24</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3758.4</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>3014.54</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>3419.638</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>317.74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>301.68</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>270.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>319.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>345.26</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>319.18</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>270.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>301.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>317.74</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>345.26</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>270.68</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>310.908</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-118.67</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-22.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-32.92</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-22.50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>97.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-118.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>97.48999999999999</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-118.67</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-13.92</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>213.92</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>258.57</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>243.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>241.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>229.91</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>241.40</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>243.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>258.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>213.92</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>258.57</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>213.92</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>237.442</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>74.64</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>78.01</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>63.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>65.77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>78.41</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>63.81</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>72.128</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-13.39</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-18.07</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>-3.66</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-18.07</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-13.39</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>-3.66</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-18.07</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>-11.70666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>367.83</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>463.48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>724.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>466.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>454.18</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>466.73</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>724.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>463.48</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>367.83</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>724.84</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>367.83</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>495.412</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,161.06</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>774.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,061.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,238.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,096.99</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,238.70</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,061.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>774.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,161.06</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1238.7</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>774</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1066.516</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>154.27</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>306.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>267.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>242.46</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>267.98</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>306.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>154.27</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>95.27</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>306.26</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>95.27</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>213.248</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,256.33</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>928.27</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,368.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,506.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,339.45</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,506.68</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,368.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>928.27</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,256.33</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1506.68</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>928.27</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1279.764</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>0.21</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1.398</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,256.26</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>922.01</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,367.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,506.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,339.24</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,506.34</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,367.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>922.01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,256.26</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1506.34</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>922.01</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1278.366</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,256.26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>922.01</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,367.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,506.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,339.24</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,506.34</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,367.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>922.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,256.26</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1506.34</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>922.01</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1278.366</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>395.02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>300.39</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>410.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>453.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>368.63</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>453.97</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>410.62</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>300.39</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>395.02</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>453.97</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>300.39</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>385.726</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>861.24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>621.62</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>957.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,052.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>970.61</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,052.37</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>957.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>621.62</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>861.24</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1052.37</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>621.62</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>892.64</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>861.24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>621.62</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>957.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,052.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>970.61</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,052.37</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>957.36</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>621.62</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>861.24</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1052.37</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>621.62</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>892.64</v>
       </c>
     </row>
     <row r="23">
@@ -1313,15 +1119,6 @@
         <is>
           <t>289.37</t>
         </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>289.37</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>36.40</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>33.10</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>30.86</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>36.40</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>33.10</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>30.86</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>36.40</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>33.10</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>30.86</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>36.40</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>33.10</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>29.80</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>30.86</v>
       </c>
     </row>
     <row r="32"/>
@@ -1520,12 +1281,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1535,22 +1296,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14.69</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>14.46</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>14.61333333333334</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1561,12 +1313,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>49.98</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>50.76</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1576,22 +1328,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>50.76</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>49.98</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>49.98</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>50.5</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="36"/>
@@ -1618,7 +1361,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1638,17 +1381,8 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.045</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1659,7 +1393,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1679,17 +1413,8 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>0.06</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1700,7 +1425,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1720,17 +1445,8 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.03</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="43"/>
@@ -1749,12 +1465,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>14.47</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1764,22 +1480,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>14.47</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>14.32</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1790,12 +1497,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>99.94</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1805,22 +1512,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>99.94</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>99.94</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>99.95999999999999</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1831,12 +1529,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>49.99</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>49.24</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1846,22 +1544,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>49.24</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>49.99</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>49.21</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>49.48</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>
